--- a/biology/Médecine/Henri_Albert_Hartmann/Henri_Albert_Hartmann.xlsx
+++ b/biology/Médecine/Henri_Albert_Hartmann/Henri_Albert_Hartmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Albert Hartmann (Paris, 16 juin 1860 - Paris, 1er janvier 1952[1] est un chirurgien français. Il a écrit de nombreux articles sur une grande variété de sujets, allant des blessures de guerre aux luxations de l'épaule en passant par le cancer gastro-intestinal. Hartmann est surtout connu pour l'opération de Hartmann, une colectomie en deux étapes qu'il a conçue pour le cancer du côlon et la diverticulite.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Albert Hartmann (Paris, 16 juin 1860 - Paris, 1er janvier 1952 est un chirurgien français. Il a écrit de nombreux articles sur une grande variété de sujets, allant des blessures de guerre aux luxations de l'épaule en passant par le cancer gastro-intestinal. Hartmann est surtout connu pour l'opération de Hartmann, une colectomie en deux étapes qu'il a conçue pour le cancer du côlon et la diverticulite.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Journée Hartmann</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hartmann Day célèbre l'invention par Henri Albert Charles Antoine Hartmann (né le 16 juin 1860) de l'opération chirurgicale qui est maintenant connue sous le nom de procédure Hartmann qui a sauvé de nombreuses vies ; aussi le travail de ceux qui ont effectué l'opération et de ceux qui ont soutenu les patients sur le point de subir, ayant ou ayant eu l'opération.
 Le 16 juin de chaque année, Hartmann Day célèbre l'invention par Henri Albert Charles Antoine Hartmann (né le 16 juin 1860) de l'opération chirurgicale connue aujourd'hui sous le nom de procédure Hartmann qui a sauvé de nombreuses vies; aussi le travail de ceux qui ont pratiqué l'opération et de ceux qui ont soutenu les patients sur le point de subir, de subir ou de subir l'opération. 
